--- a/docs/StructureDefinition-VAAppointmentPracitioner.xlsx
+++ b/docs/StructureDefinition-VAAppointmentPracitioner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="344">
   <si>
     <t>Path</t>
   </si>
@@ -316,21 +316,21 @@
     <t>Appointment.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -339,17 +339,10 @@
     <t>Appointment.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -758,9 +751,6 @@
   </si>
   <si>
     <t>Appointment.participant.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -816,7 +806,14 @@
     <t>Appointment.participant.type.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Appointment.participant.type.coding</t>
@@ -2212,7 +2209,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2231,15 +2228,17 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -2276,14 +2275,16 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>101</v>
@@ -2304,7 +2305,7 @@
         <v>41</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>41</v>
@@ -2322,7 +2323,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2341,16 +2342,16 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2400,7 +2401,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2432,7 +2433,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2455,13 +2456,13 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2512,7 +2513,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2530,21 +2531,21 @@
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>115</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2570,13 +2571,13 @@
         <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2602,14 +2603,14 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="X12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>51</v>
@@ -2644,21 +2645,21 @@
         <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>125</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2681,13 +2682,13 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2714,11 +2715,11 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2736,7 +2737,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2754,7 +2755,7 @@
         <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>41</v>
@@ -2768,7 +2769,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2791,13 +2792,13 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2824,11 +2825,11 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
@@ -2846,7 +2847,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2864,7 +2865,7 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -2878,7 +2879,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2901,13 +2902,13 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2934,11 +2935,11 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -2956,7 +2957,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2974,13 +2975,13 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -2988,7 +2989,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3011,13 +3012,13 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3044,11 +3045,11 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -3066,7 +3067,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3084,7 +3085,7 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -3093,12 +3094,12 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3121,13 +3122,13 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3154,13 +3155,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -3178,7 +3179,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3196,7 +3197,7 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
@@ -3205,12 +3206,12 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3233,13 +3234,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3290,7 +3291,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3308,7 +3309,7 @@
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -3322,7 +3323,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3345,16 +3346,16 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3404,7 +3405,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3422,21 +3423,21 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3459,13 +3460,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3516,7 +3517,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3534,21 +3535,21 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3571,13 +3572,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3628,7 +3629,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3646,13 +3647,13 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3660,7 +3661,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3683,13 +3684,13 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3740,7 +3741,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3758,21 +3759,21 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3795,13 +3796,13 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3852,7 +3853,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3870,21 +3871,21 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3907,13 +3908,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3964,7 +3965,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3982,7 +3983,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -3996,7 +3997,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4019,13 +4020,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4076,7 +4077,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4094,7 +4095,7 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4108,7 +4109,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4131,16 +4132,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4190,7 +4191,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4208,7 +4209,7 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -4222,7 +4223,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4245,16 +4246,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4304,7 +4305,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4322,21 +4323,21 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4359,13 +4360,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4416,7 +4417,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4434,7 +4435,7 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4448,7 +4449,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4471,13 +4472,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4528,7 +4529,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>51</v>
@@ -4540,27 +4541,27 @@
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4583,13 +4584,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4640,7 +4641,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4658,7 +4659,7 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -4672,11 +4673,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4695,16 +4696,16 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4754,7 +4755,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4772,7 +4773,7 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -4786,11 +4787,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4809,16 +4810,16 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4868,7 +4869,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4900,7 +4901,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4923,16 +4924,16 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4961,10 +4962,10 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -4982,7 +4983,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5000,21 +5001,21 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5037,13 +5038,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5094,7 +5095,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5112,7 +5113,7 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -5126,11 +5127,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5149,16 +5150,16 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5196,19 +5197,19 @@
         <v>41</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5226,7 +5227,7 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -5240,7 +5241,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5263,19 +5264,19 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5324,7 +5325,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5342,21 +5343,21 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5379,13 +5380,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5436,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5454,7 +5455,7 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -5468,11 +5469,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5491,16 +5492,16 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5538,19 +5539,19 @@
         <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5568,7 +5569,7 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5582,7 +5583,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5608,16 +5609,16 @@
         <v>64</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5666,7 +5667,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5684,21 +5685,21 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5721,16 +5722,16 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5780,7 +5781,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5798,21 +5799,21 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5838,63 +5839,63 @@
         <v>70</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5912,21 +5913,21 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5949,17 +5950,17 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6008,7 +6009,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6026,21 +6027,21 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6063,19 +6064,19 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6124,7 +6125,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6142,21 +6143,21 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6179,19 +6180,19 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6240,7 +6241,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6258,28 +6259,28 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E45" t="s" s="2">
         <v>42</v>
@@ -6297,13 +6298,13 @@
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6354,7 +6355,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6369,24 +6370,24 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6412,10 +6413,10 @@
         <v>70</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6442,14 +6443,14 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6484,10 +6485,10 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -6498,7 +6499,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6524,10 +6525,10 @@
         <v>70</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6554,14 +6555,14 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>51</v>
@@ -6596,21 +6597,21 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>337</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6633,16 +6634,16 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6692,7 +6693,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6710,16 +6711,16 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
   </sheetData>
